--- a/SplashBi/Testdata/splashbi.xlsx
+++ b/SplashBi/Testdata/splashbi.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Automation\SplashBi\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SplashBI\Splash-autotest\SplashBi\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A128E08-B3EE-4AA8-BE6E-195BC01F109B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7887EADD-7708-4594-B593-C51E252C6828}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Report" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>TC_ID</t>
   </si>
@@ -137,12 +136,18 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>checkConnectionStatus</t>
+  </si>
+  <si>
+    <t>TC_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,11 +492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AA60EE-465A-46FF-965A-F8AF75B3F02B}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -618,6 +623,17 @@
       </c>
       <c r="F4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DF6DD5-B706-4FDD-9C71-E31CC0D01928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
